--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X3 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X3 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>art sample</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,34 +135,395 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
   </si>
   <si>
+    <t>art sample</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 150w</t>
+  </si>
+  <si>
     <t>ABG @ 150</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +531,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +841,1374 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$93</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.009375</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.00949074074074074</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="h:mm:ss">
+                  <c:v>0.00960648148148148</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="h:mm:ss">
+                  <c:v>0.00972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="h:mm:ss">
+                  <c:v>0.00983796296296296</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="h:mm:ss">
+                  <c:v>0.0099537037037037</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="h:mm:ss">
+                  <c:v>0.0100694444444444</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="h:mm:ss">
+                  <c:v>0.0101851851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.49</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.89</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.53</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.87</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.85</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.32</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.38</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15.39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15.45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="511341587"/>
+        <c:axId val="19384981"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511341587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19384981"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19384981"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511341587"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>198755</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12291695" y="3160395"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,21 +2492,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M68" workbookViewId="0">
-      <selection activeCell="Y91" sqref="Y91"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W83" sqref="W83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,52 +2587,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -649,12 +2649,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>3.0358796296296297E-2</v>
+        <v>0.0303587962962963</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -717,12 +2717,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>3.0474537037037036E-2</v>
+        <v>0.030474537037037</v>
       </c>
       <c r="C7">
         <v>92</v>
@@ -785,12 +2785,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>3.0590277777777775E-2</v>
+        <v>0.0305902777777778</v>
       </c>
       <c r="C8">
         <v>96</v>
@@ -829,7 +2829,7 @@
         <v>1903</v>
       </c>
       <c r="O8">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="P8">
         <v>131</v>
@@ -838,7 +2838,7 @@
         <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -856,12 +2856,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0706018518518521E-2</v>
+        <v>0.0307060185185185</v>
       </c>
       <c r="C9">
         <v>101</v>
@@ -924,12 +2924,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>3.0821759259259257E-2</v>
+        <v>0.0308217592592593</v>
       </c>
       <c r="C10">
         <v>102</v>
@@ -992,12 +2992,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>3.0937499999999996E-2</v>
+        <v>0.0309375</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -1060,12 +3060,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>3.1053240740740742E-2</v>
+        <v>0.0310532407407407</v>
       </c>
       <c r="C12">
         <v>102</v>
@@ -1128,12 +3128,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>3.1168981481481482E-2</v>
+        <v>0.0311689814814815</v>
       </c>
       <c r="C13">
         <v>102</v>
@@ -1145,7 +3145,7 @@
         <v>7.48</v>
       </c>
       <c r="F13">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="G13">
         <v>62</v>
@@ -1196,12 +3196,12 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>3.1284722222222221E-2</v>
+        <v>0.0312847222222222</v>
       </c>
       <c r="C14">
         <v>98</v>
@@ -1249,47 +3249,47 @@
         <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U14" s="2">
         <f>AVERAGE(C6:C14)</f>
-        <v>99.333333333333329</v>
+        <v>99.3333333333333</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" ref="V14:AI14" si="0">AVERAGE(D6:D14)</f>
-        <v>72.111111111111114</v>
+        <v>72.1111111111111</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>7.2277777777777779</v>
+        <v>7.22777777777778</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="0"/>
-        <v>4.0522222222222224</v>
+        <v>4.05222222222222</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="0"/>
-        <v>62.111111111111114</v>
+        <v>62.1111111111111</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="0"/>
-        <v>363.88888888888891</v>
+        <v>363.888888888889</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="0"/>
-        <v>136.33333333333334</v>
+        <v>136.333333333333</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="0"/>
-        <v>133.88888888888889</v>
+        <v>133.888888888889</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="0"/>
-        <v>79.555555555555557</v>
+        <v>79.5555555555556</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="0"/>
-        <v>115.22222222222223</v>
+        <v>115.222222222222</v>
       </c>
       <c r="AE14" s="2">
         <f t="shared" si="0"/>
@@ -1297,27 +3297,27 @@
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="0"/>
-        <v>1803.2222222222222</v>
+        <v>1803.22222222222</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="0"/>
-        <v>5.1333333333333337</v>
+        <v>5.13333333333333</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" si="0"/>
-        <v>120.77777777777777</v>
+        <v>120.777777777778</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>3.1400462962962963E-2</v>
+        <v>0.031400462962963</v>
       </c>
       <c r="C15">
         <v>97</v>
@@ -1356,7 +3356,7 @@
         <v>1858</v>
       </c>
       <c r="O15">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="P15">
         <v>116</v>
@@ -1380,12 +3380,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>3.1516203703703706E-2</v>
+        <v>0.0315162037037037</v>
       </c>
       <c r="C16">
         <v>95</v>
@@ -1433,7 +3433,7 @@
         <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1451,12 +3451,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>3.1631944444444442E-2</v>
+        <v>0.0316319444444444</v>
       </c>
       <c r="C17">
         <v>96</v>
@@ -1495,7 +3495,7 @@
         <v>2003</v>
       </c>
       <c r="O17">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="P17">
         <v>119</v>
@@ -1519,12 +3519,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>3.1747685185185184E-2</v>
+        <v>0.0317476851851852</v>
       </c>
       <c r="C18">
         <v>99</v>
@@ -1587,12 +3587,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>3.1863425925925927E-2</v>
+        <v>0.0318634259259259</v>
       </c>
       <c r="C19">
         <v>101</v>
@@ -1655,12 +3655,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>3.1979166666666663E-2</v>
+        <v>0.0319791666666667</v>
       </c>
       <c r="C20">
         <v>104</v>
@@ -1672,7 +3672,7 @@
         <v>7.84</v>
       </c>
       <c r="F20">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="G20">
         <v>63</v>
@@ -1723,12 +3723,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>3.2094907407407412E-2</v>
+        <v>0.0320949074074074</v>
       </c>
       <c r="C21">
         <v>110</v>
@@ -1737,10 +3737,10 @@
         <v>74</v>
       </c>
       <c r="E21">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="F21">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G21">
         <v>64</v>
@@ -1791,12 +3791,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>3.2210648148148148E-2</v>
+        <v>0.0322106481481481</v>
       </c>
       <c r="C22">
         <v>110</v>
@@ -1859,12 +3859,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>3.2326388888888884E-2</v>
+        <v>0.0323263888888889</v>
       </c>
       <c r="C23">
         <v>107</v>
@@ -1876,7 +3876,7 @@
         <v>7.79</v>
       </c>
       <c r="F23">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="G23">
         <v>63</v>
@@ -1927,12 +3927,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>3.2442129629629633E-2</v>
+        <v>0.0324421296296296</v>
       </c>
       <c r="C24">
         <v>112</v>
@@ -1995,12 +3995,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>3.2557870370370369E-2</v>
+        <v>0.0325578703703704</v>
       </c>
       <c r="C25">
         <v>113</v>
@@ -2009,7 +4009,7 @@
         <v>71</v>
       </c>
       <c r="E25">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="F25">
         <v>4.55</v>
@@ -2063,12 +4063,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>3.2673611111111105E-2</v>
+        <v>0.0326736111111111</v>
       </c>
       <c r="C26">
         <v>109</v>
@@ -2131,12 +4131,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>3.2789351851851854E-2</v>
+        <v>0.0327893518518519</v>
       </c>
       <c r="C27">
         <v>106</v>
@@ -2148,7 +4148,7 @@
         <v>7.41</v>
       </c>
       <c r="F27">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="G27">
         <v>62</v>
@@ -2199,12 +4199,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>3.290509259259259E-2</v>
+        <v>0.0329050925925926</v>
       </c>
       <c r="C28">
         <v>106</v>
@@ -2267,12 +4267,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>3.3020833333333333E-2</v>
+        <v>0.0330208333333333</v>
       </c>
       <c r="C29">
         <v>107</v>
@@ -2284,7 +4284,7 @@
         <v>7.68</v>
       </c>
       <c r="F29">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="G29">
         <v>61</v>
@@ -2335,12 +4335,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>3.3136574074074075E-2</v>
+        <v>0.0331365740740741</v>
       </c>
       <c r="C30">
         <v>106</v>
@@ -2403,12 +4403,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>3.3252314814814811E-2</v>
+        <v>0.0332523148148148</v>
       </c>
       <c r="C31">
         <v>108</v>
@@ -2471,12 +4471,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>3.3368055555555554E-2</v>
+        <v>0.0333680555555556</v>
       </c>
       <c r="C32">
         <v>110</v>
@@ -2539,12 +4539,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>3.3483796296296296E-2</v>
+        <v>0.0334837962962963</v>
       </c>
       <c r="C33">
         <v>114</v>
@@ -2607,12 +4607,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>3.3599537037037039E-2</v>
+        <v>0.033599537037037</v>
       </c>
       <c r="C34">
         <v>111</v>
@@ -2675,12 +4675,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>3.3715277777777775E-2</v>
+        <v>0.0337152777777778</v>
       </c>
       <c r="C35">
         <v>115</v>
@@ -2728,7 +4728,7 @@
         <v>52</v>
       </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -2746,12 +4746,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>3.3831018518518517E-2</v>
+        <v>0.0338310185185185</v>
       </c>
       <c r="C36">
         <v>119</v>
@@ -2760,10 +4760,10 @@
         <v>74</v>
       </c>
       <c r="E36">
-        <v>8.8800000000000008</v>
+        <v>8.88</v>
       </c>
       <c r="F36">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="G36">
         <v>64</v>
@@ -2814,12 +4814,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>3.394675925925926E-2</v>
+        <v>0.0339467592592593</v>
       </c>
       <c r="C37">
         <v>122</v>
@@ -2882,12 +4882,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>3.4062500000000002E-2</v>
+        <v>0.0340625</v>
       </c>
       <c r="C38">
         <v>121</v>
@@ -2896,7 +4896,7 @@
         <v>83</v>
       </c>
       <c r="E38">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="F38">
         <v>5.64</v>
@@ -2950,12 +4950,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>3.4178240740740738E-2</v>
+        <v>0.0341782407407407</v>
       </c>
       <c r="C39">
         <v>121</v>
@@ -3018,12 +5018,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>3.4293981481481481E-2</v>
+        <v>0.0342939814814815</v>
       </c>
       <c r="C40">
         <v>123</v>
@@ -3086,12 +5086,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>3.4409722222222223E-2</v>
+        <v>0.0344097222222222</v>
       </c>
       <c r="C41">
         <v>124</v>
@@ -3154,12 +5154,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>3.4525462962962966E-2</v>
+        <v>0.034525462962963</v>
       </c>
       <c r="C42">
         <v>124</v>
@@ -3222,12 +5222,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>3.4641203703703702E-2</v>
+        <v>0.0346412037037037</v>
       </c>
       <c r="C43">
         <v>127</v>
@@ -3290,12 +5290,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>3.4756944444444444E-2</v>
+        <v>0.0347569444444444</v>
       </c>
       <c r="C44">
         <v>125</v>
@@ -3358,12 +5358,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>3.4872685185185187E-2</v>
+        <v>0.0348726851851852</v>
       </c>
       <c r="C45">
         <v>129</v>
@@ -3426,12 +5426,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>3.498842592592593E-2</v>
+        <v>0.0349884259259259</v>
       </c>
       <c r="C46">
         <v>128</v>
@@ -3494,12 +5494,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>3.5104166666666665E-2</v>
+        <v>0.0351041666666667</v>
       </c>
       <c r="C47">
         <v>131</v>
@@ -3562,12 +5562,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>3.5219907407407408E-2</v>
+        <v>0.0352199074074074</v>
       </c>
       <c r="C48">
         <v>132</v>
@@ -3630,12 +5630,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>3.5335648148148151E-2</v>
+        <v>0.0353356481481482</v>
       </c>
       <c r="C49">
         <v>138</v>
@@ -3698,12 +5698,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>3.5451388888888886E-2</v>
+        <v>0.0354513888888889</v>
       </c>
       <c r="C50">
         <v>141</v>
@@ -3766,12 +5766,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>3.5567129629629629E-2</v>
+        <v>0.0355671296296296</v>
       </c>
       <c r="C51">
         <v>139</v>
@@ -3834,12 +5834,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>3.5682870370370372E-2</v>
+        <v>0.0356828703703704</v>
       </c>
       <c r="C52">
         <v>141</v>
@@ -3878,7 +5878,7 @@
         <v>1039</v>
       </c>
       <c r="O52">
-        <v>8.8699999999999992</v>
+        <v>8.87</v>
       </c>
       <c r="P52">
         <v>170</v>
@@ -3902,12 +5902,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>3.5798611111111107E-2</v>
+        <v>0.0357986111111111</v>
       </c>
       <c r="C53">
         <v>140</v>
@@ -3946,7 +5946,7 @@
         <v>1092</v>
       </c>
       <c r="O53">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="P53">
         <v>154</v>
@@ -3970,12 +5970,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>3.5914351851851857E-2</v>
+        <v>0.0359143518518519</v>
       </c>
       <c r="C54">
         <v>142</v>
@@ -4038,12 +6038,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>3.6030092592592593E-2</v>
+        <v>0.0360300925925926</v>
       </c>
       <c r="C55">
         <v>142</v>
@@ -4082,7 +6082,7 @@
         <v>1057</v>
       </c>
       <c r="O55">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="P55">
         <v>166</v>
@@ -4106,12 +6106,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>3.6145833333333328E-2</v>
+        <v>0.0361458333333333</v>
       </c>
       <c r="C56">
         <v>140</v>
@@ -4174,12 +6174,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>3.6261574074074078E-2</v>
+        <v>0.0362615740740741</v>
       </c>
       <c r="C57">
         <v>145</v>
@@ -4218,7 +6218,7 @@
         <v>1039</v>
       </c>
       <c r="O57">
-        <v>8.8699999999999992</v>
+        <v>8.87</v>
       </c>
       <c r="P57">
         <v>144</v>
@@ -4242,12 +6242,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>3.6377314814814814E-2</v>
+        <v>0.0363773148148148</v>
       </c>
       <c r="C58">
         <v>146</v>
@@ -4310,12 +6310,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>3.6493055555555549E-2</v>
+        <v>0.0364930555555555</v>
       </c>
       <c r="C59">
         <v>149</v>
@@ -4378,12 +6378,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>3.6608796296296299E-2</v>
+        <v>0.0366087962962963</v>
       </c>
       <c r="C60">
         <v>152</v>
@@ -4422,7 +6422,7 @@
         <v>984</v>
       </c>
       <c r="O60">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="P60">
         <v>141</v>
@@ -4446,12 +6446,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>3.6724537037037035E-2</v>
+        <v>0.036724537037037</v>
       </c>
       <c r="C61">
         <v>153</v>
@@ -4514,12 +6514,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>3.6840277777777777E-2</v>
+        <v>0.0368402777777778</v>
       </c>
       <c r="C62">
         <v>154</v>
@@ -4582,12 +6582,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>3.695601851851852E-2</v>
+        <v>0.0369560185185185</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -4626,7 +6626,7 @@
         <v>959</v>
       </c>
       <c r="O63">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="P63">
         <v>142</v>
@@ -4650,12 +6650,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>3.7071759259259256E-2</v>
+        <v>0.0370717592592593</v>
       </c>
       <c r="C64">
         <v>161</v>
@@ -4694,7 +6694,7 @@
         <v>926</v>
       </c>
       <c r="O64">
-        <v>9.9499999999999993</v>
+        <v>9.95</v>
       </c>
       <c r="P64">
         <v>136</v>
@@ -4703,7 +6703,7 @@
         <v>53</v>
       </c>
       <c r="S64" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -4721,12 +6721,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>3.7187499999999998E-2</v>
+        <v>0.0371875</v>
       </c>
       <c r="C65">
         <v>166</v>
@@ -4789,12 +6789,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>3.7303240740740741E-2</v>
+        <v>0.0373032407407407</v>
       </c>
       <c r="C66">
         <v>172</v>
@@ -4857,12 +6857,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>3.7418981481481477E-2</v>
+        <v>0.0374189814814815</v>
       </c>
       <c r="C67">
         <v>172</v>
@@ -4925,12 +6925,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>3.7534722222222219E-2</v>
+        <v>0.0375347222222222</v>
       </c>
       <c r="C68">
         <v>174</v>
@@ -4993,12 +6993,12 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>3.7650462962962962E-2</v>
+        <v>0.037650462962963</v>
       </c>
       <c r="C69">
         <v>177</v>
@@ -5061,12 +7061,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>3.7766203703703705E-2</v>
+        <v>0.0377662037037037</v>
       </c>
       <c r="C70">
         <v>180</v>
@@ -5129,12 +7129,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>3.788194444444444E-2</v>
+        <v>0.0378819444444444</v>
       </c>
       <c r="C71">
         <v>184</v>
@@ -5182,7 +7182,7 @@
         <v>48</v>
       </c>
       <c r="S71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U71" s="2">
         <f>AVERAGE(C65:C71)</f>
@@ -5190,11 +7190,11 @@
       </c>
       <c r="V71" s="2">
         <f t="shared" ref="V71:AI71" si="1">AVERAGE(D65:D71)</f>
-        <v>83.571428571428569</v>
+        <v>83.5714285714286</v>
       </c>
       <c r="W71" s="2">
         <f t="shared" si="1"/>
-        <v>14.752857142857142</v>
+        <v>14.7528571428571</v>
       </c>
       <c r="X71" s="2">
         <f t="shared" si="1"/>
@@ -5202,15 +7202,15 @@
       </c>
       <c r="Y71" s="2">
         <f t="shared" si="1"/>
-        <v>67.714285714285708</v>
+        <v>67.7142857142857</v>
       </c>
       <c r="Z71" s="2">
         <f t="shared" si="1"/>
-        <v>274.42857142857144</v>
+        <v>274.428571428571</v>
       </c>
       <c r="AA71" s="2">
         <f t="shared" si="1"/>
-        <v>192.28571428571428</v>
+        <v>192.285714285714</v>
       </c>
       <c r="AB71" s="2">
         <f t="shared" si="1"/>
@@ -5218,15 +7218,15 @@
       </c>
       <c r="AC71" s="2">
         <f t="shared" si="1"/>
-        <v>79.285714285714292</v>
+        <v>79.2857142857143</v>
       </c>
       <c r="AD71" s="2">
         <f t="shared" si="1"/>
-        <v>123.14285714285714</v>
+        <v>123.142857142857</v>
       </c>
       <c r="AE71" s="2">
         <f t="shared" si="1"/>
-        <v>493.14285714285717</v>
+        <v>493.142857142857</v>
       </c>
       <c r="AF71" s="2">
         <f t="shared" si="1"/>
@@ -5234,23 +7234,23 @@
       </c>
       <c r="AG71" s="2">
         <f t="shared" si="1"/>
-        <v>10.481428571428571</v>
+        <v>10.4814285714286</v>
       </c>
       <c r="AH71" s="2">
         <f t="shared" si="1"/>
-        <v>119.57142857142857</v>
+        <v>119.571428571429</v>
       </c>
       <c r="AI71" s="2">
         <f t="shared" si="1"/>
-        <v>49.571428571428569</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+        <v>49.5714285714286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>3.7997685185185183E-2</v>
+        <v>0.0379976851851852</v>
       </c>
       <c r="C72">
         <v>188</v>
@@ -5313,12 +7313,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>3.8113425925925926E-2</v>
+        <v>0.0381134259259259</v>
       </c>
       <c r="C73">
         <v>193</v>
@@ -5366,7 +7366,7 @@
         <v>47</v>
       </c>
       <c r="S73" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
@@ -5384,12 +7384,12 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>3.8229166666666668E-2</v>
+        <v>0.0382291666666667</v>
       </c>
       <c r="C74">
         <v>195</v>
@@ -5401,7 +7401,7 @@
         <v>16.54</v>
       </c>
       <c r="F74">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="G74">
         <v>67</v>
@@ -5452,12 +7452,12 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>3.8344907407407411E-2</v>
+        <v>0.0383449074074074</v>
       </c>
       <c r="C75">
         <v>197</v>
@@ -5469,7 +7469,7 @@
         <v>16.29</v>
       </c>
       <c r="F75">
-        <v>9.1300000000000008</v>
+        <v>9.13</v>
       </c>
       <c r="G75">
         <v>67</v>
@@ -5520,12 +7520,12 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>3.8460648148148147E-2</v>
+        <v>0.0384606481481481</v>
       </c>
       <c r="C76">
         <v>200</v>
@@ -5588,12 +7588,12 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>3.8576388888888889E-2</v>
+        <v>0.0385763888888889</v>
       </c>
       <c r="C77">
         <v>201</v>
@@ -5605,7 +7605,7 @@
         <v>16.71</v>
       </c>
       <c r="F77">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="G77">
         <v>66</v>
@@ -5656,12 +7656,12 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" s="1">
-        <v>3.8692129629629632E-2</v>
+        <v>0.0386921296296296</v>
       </c>
       <c r="C78">
         <v>202</v>
@@ -5673,7 +7673,7 @@
         <v>17.18</v>
       </c>
       <c r="F78">
-        <v>9.6300000000000008</v>
+        <v>9.63</v>
       </c>
       <c r="G78">
         <v>67</v>
@@ -5724,12 +7724,12 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" s="1">
-        <v>3.8807870370370375E-2</v>
+        <v>0.0388078703703704</v>
       </c>
       <c r="C79">
         <v>204</v>
@@ -5738,10 +7738,10 @@
         <v>82</v>
       </c>
       <c r="E79">
-        <v>16.850000000000001</v>
+        <v>16.85</v>
       </c>
       <c r="F79">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="G79">
         <v>66</v>
@@ -5792,12 +7792,12 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="B80" s="1">
-        <v>3.892361111111111E-2</v>
+        <v>0.0389236111111111</v>
       </c>
       <c r="C80">
         <v>205</v>
@@ -5809,7 +7809,7 @@
         <v>17.32</v>
       </c>
       <c r="F80">
-        <v>9.7100000000000009</v>
+        <v>9.71</v>
       </c>
       <c r="G80">
         <v>67</v>
@@ -5860,12 +7860,12 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B81" s="1">
-        <v>3.9039351851851853E-2</v>
+        <v>0.0390393518518519</v>
       </c>
       <c r="C81">
         <v>205</v>
@@ -5928,12 +7928,12 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>8.9120370370370378E-3</v>
+        <v>0.00891203703703704</v>
       </c>
       <c r="B82" s="1">
-        <v>3.9155092592592596E-2</v>
+        <v>0.0391550925925926</v>
       </c>
       <c r="C82">
         <v>203</v>
@@ -5996,12 +7996,12 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>9.0277777777777787E-3</v>
+        <v>0.00902777777777778</v>
       </c>
       <c r="B83" s="1">
-        <v>3.9270833333333331E-2</v>
+        <v>0.0392708333333333</v>
       </c>
       <c r="C83">
         <v>203</v>
@@ -6049,35 +8049,35 @@
         <v>40</v>
       </c>
       <c r="S83" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="U83" s="2">
         <f>AVERAGE(C71:C83)</f>
-        <v>198.46153846153845</v>
+        <v>198.461538461538</v>
       </c>
       <c r="V83" s="2">
         <f t="shared" ref="V83:AI83" si="2">AVERAGE(D71:D83)</f>
-        <v>82.769230769230774</v>
+        <v>82.7692307692308</v>
       </c>
       <c r="W83" s="2">
         <f t="shared" si="2"/>
-        <v>16.554615384615381</v>
+        <v>16.5546153846154</v>
       </c>
       <c r="X83" s="2">
         <f t="shared" si="2"/>
-        <v>9.281538461538462</v>
+        <v>9.28153846153846</v>
       </c>
       <c r="Y83" s="2">
         <f t="shared" si="2"/>
-        <v>67.07692307692308</v>
+        <v>67.0769230769231</v>
       </c>
       <c r="Z83" s="2">
         <f t="shared" si="2"/>
-        <v>242.53846153846155</v>
+        <v>242.538461538462</v>
       </c>
       <c r="AA83" s="2">
         <f t="shared" si="2"/>
-        <v>186.07692307692307</v>
+        <v>186.076923076923</v>
       </c>
       <c r="AB83" s="2">
         <f t="shared" si="2"/>
@@ -6085,39 +8085,39 @@
       </c>
       <c r="AC83" s="2">
         <f t="shared" si="2"/>
-        <v>79.461538461538467</v>
+        <v>79.4615384615385</v>
       </c>
       <c r="AD83" s="2">
         <f t="shared" si="2"/>
-        <v>122.76923076923077</v>
+        <v>122.769230769231</v>
       </c>
       <c r="AE83" s="2">
         <f t="shared" si="2"/>
-        <v>440.23076923076923</v>
+        <v>440.230769230769</v>
       </c>
       <c r="AF83" s="2">
         <f t="shared" si="2"/>
-        <v>785.23076923076928</v>
+        <v>785.230769230769</v>
       </c>
       <c r="AG83" s="2">
         <f t="shared" si="2"/>
-        <v>11.763076923076921</v>
+        <v>11.7630769230769</v>
       </c>
       <c r="AH83" s="2">
         <f t="shared" si="2"/>
-        <v>102.23076923076923</v>
+        <v>102.230769230769</v>
       </c>
       <c r="AI83" s="2">
         <f t="shared" si="2"/>
-        <v>38.692307692307693</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+        <v>38.6923076923077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
-        <v>9.1435185185185178E-3</v>
+        <v>0.00914351851851852</v>
       </c>
       <c r="B84" s="1">
-        <v>3.9386574074074074E-2</v>
+        <v>0.0393865740740741</v>
       </c>
       <c r="C84">
         <v>198</v>
@@ -6165,12 +8165,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
-        <v>9.2592592592592605E-3</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="B85" s="1">
-        <v>3.9502314814814816E-2</v>
+        <v>0.0395023148148148</v>
       </c>
       <c r="C85">
         <v>192</v>
@@ -6179,7 +8179,7 @@
         <v>84</v>
       </c>
       <c r="E85">
-        <v>16.239999999999998</v>
+        <v>16.24</v>
       </c>
       <c r="F85">
         <v>9.11</v>
@@ -6218,12 +8218,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="B86" s="1">
-        <v>3.9618055555555552E-2</v>
+        <v>0.0396180555555556</v>
       </c>
       <c r="C86">
         <v>190</v>
@@ -6271,12 +8271,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
-        <v>9.4907407407407406E-3</v>
+        <v>0.00949074074074074</v>
       </c>
       <c r="B87" s="1">
-        <v>3.9733796296296302E-2</v>
+        <v>0.0397337962962963</v>
       </c>
       <c r="C87">
         <v>187</v>
@@ -6324,12 +8324,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
-        <v>9.6064814814814815E-3</v>
+        <v>0.00960648148148148</v>
       </c>
       <c r="B88" s="1">
-        <v>3.9849537037037037E-2</v>
+        <v>0.039849537037037</v>
       </c>
       <c r="C88">
         <v>183</v>
@@ -6341,7 +8341,7 @@
         <v>15.39</v>
       </c>
       <c r="F88">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="G88">
         <v>66</v>
@@ -6377,12 +8377,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
-        <v>9.7222222222222224E-3</v>
+        <v>0.00972222222222222</v>
       </c>
       <c r="B89" s="1">
-        <v>3.9965277777777773E-2</v>
+        <v>0.0399652777777778</v>
       </c>
       <c r="C89">
         <v>181</v>
@@ -6430,12 +8430,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
-        <v>9.8379629629629633E-3</v>
+        <v>0.00983796296296296</v>
       </c>
       <c r="B90" s="1">
-        <v>4.0081018518518523E-2</v>
+        <v>0.0400810185185185</v>
       </c>
       <c r="C90">
         <v>176</v>
@@ -6447,7 +8447,7 @@
         <v>14.49</v>
       </c>
       <c r="F90">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="G90">
         <v>66</v>
@@ -6483,12 +8483,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
-        <v>9.9537037037037042E-3</v>
+        <v>0.0099537037037037</v>
       </c>
       <c r="B91" s="1">
-        <v>4.0196759259259258E-2</v>
+        <v>0.0401967592592593</v>
       </c>
       <c r="C91">
         <v>174</v>
@@ -6536,12 +8536,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
-        <v>1.0069444444444445E-2</v>
+        <v>0.0100694444444444</v>
       </c>
       <c r="B92" s="1">
-        <v>4.0312499999999994E-2</v>
+        <v>0.0403125</v>
       </c>
       <c r="C92">
         <v>170</v>
@@ -6589,12 +8589,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
-        <v>1.0185185185185184E-2</v>
+        <v>0.0101851851851852</v>
       </c>
       <c r="B93" s="1">
-        <v>4.0428240740740744E-2</v>
+        <v>0.0404282407407407</v>
       </c>
       <c r="C93">
         <v>169</v>
@@ -6642,36 +8642,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>